--- a/dados/audio_blg.xlsx
+++ b/dados/audio_blg.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4710480272-4639-fonte-carregadora-de-bateria-storm-plus-jfa-60a-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30a8f66e-e8f9-4476-831f-0de7b9d3b6d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4710480272-4639-fonte-carregadora-de-bateria-storm-plus-jfa-60a-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbeda4358-436e-4fd8-8518-4edb45c336f8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704182693-5579-controle-longa-distancia-k1200-preto-jfa-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30a8f66e-e8f9-4476-831f-0de7b9d3b6d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3704182693-5579-controle-longa-distancia-k1200-preto-jfa-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbeda4358-436e-4fd8-8518-4edb45c336f8</t>
         </is>
       </c>
     </row>

--- a/dados/audio_blg.xlsx
+++ b/dados/audio_blg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4639 - Fonte Carregadora De Bateria Storm Plus Jfa 60a</t>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>599.9</v>
+        <v>104.73</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4710480272-4639-fonte-carregadora-de-bateria-storm-plus-jfa-60a-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbeda4358-436e-4fd8-8518-4edb45c336f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5041617366-kit-controle-longa-distncia-jfa-redline-interface-wr-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,35 +538,485 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5579 - Controle Longa Distancia K1200 Preto Jfa</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.90000000000001</v>
+        <v>653.42</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:1782735806#wid=MLB5041771116&amp;sid=search&amp;searchVariation=MLB27870129&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1782735806#wid=MLB5042015028&amp;sid=search&amp;searchVariation=MLB28961390&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>552.34</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1782735806#wid=MLB3838304241&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>621.64</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3704182693-5579-controle-longa-distancia-k1200-preto-jfa-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbeda4358-436e-4fd8-8518-4edb45c336f8</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5041664526-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 60a Storm Plus Jfa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5041944872-fonte-carregador-automotiva-60a-storm-plus-jfa-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3838344075-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5041979976-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 60a Storm Plus Jfa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5041931978-fonte-carregador-automotiva-60a-storm-plus-jfa-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3838583763-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3838577199-controle-longa-distancia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>audio_blg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa Redline Interface Wr</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>94.15000000000001</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3838315179-kit-controle-longa-distncia-jfa-redline-interface-wr-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D56b1c259-c5c9-4526-9f86-423bc7b5b2a3</t>
         </is>
       </c>
     </row>
